--- a/ParaBank Bug Report.xlsx
+++ b/ParaBank Bug Report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7AFFF9A-BAA5-4275-9DD9-BE9DC468A0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C18FC244-2DA7-4A53-984F-D1A837650ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2398,8 +2398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870F3CA4-CA3C-4B72-A681-8FF915ED3702}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2438,13 +2438,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2774,7 +2774,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9565BB6C-B179-4B4F-8313-FB5EC841EFF7}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
